--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_8_28.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_8_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2051229.620847473</v>
+        <v>2048684.434774188</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>390.7529822392023</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>101.3120708005645</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -823,16 +823,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>82.92375604299515</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>208.2793294336578</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>383.1210607601525</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>75.30729779173569</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>190.2713935802968</v>
       </c>
     </row>
     <row r="8">
@@ -1133,19 +1133,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>74.4120713882791</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>239.0879882148234</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>98.72860659578222</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>180.8863211448341</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>79.05856366754516</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0.2811815126420993</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986288</v>
       </c>
       <c r="D16" t="n">
-        <v>2.268486125805158</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>19.91555826189012</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2011,13 +2011,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>59.45282559760268</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016463</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>160.6789846282037</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>59.96838802184548</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>48.47457675531716</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>78.8939549765409</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,13 +2533,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2612,7 +2612,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>120.7871326503972</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>45.66054613217701</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>218.8658348647368</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>161.355549430153</v>
+        <v>14.92158678358384</v>
       </c>
     </row>
     <row r="35">
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>130.1208074460236</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,10 +3433,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,13 +3667,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>99.97427419833815</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>6.600826611595375</v>
       </c>
     </row>
     <row r="41">
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>152.0575603057045</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4141,7 +4141,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0.8253826161909023</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>74.53917159609126</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>546.109828622464</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C2" t="n">
-        <v>177.1473116820522</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="D2" t="n">
-        <v>177.1473116820522</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="E2" t="n">
-        <v>177.1473116820522</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="F2" t="n">
-        <v>170.2018109328488</v>
+        <v>929.3036598490722</v>
       </c>
       <c r="G2" t="n">
-        <v>156.2784068714397</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>156.2784068714397</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4373,7 +4373,7 @@
         <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>546.109828622464</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="3">
@@ -4407,13 +4407,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
         <v>1194.968834417902</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>517.7458231623355</v>
+        <v>137.7043515607636</v>
       </c>
       <c r="C4" t="n">
-        <v>517.7458231623355</v>
+        <v>137.7043515607636</v>
       </c>
       <c r="D4" t="n">
-        <v>517.7458231623355</v>
+        <v>137.7043515607636</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>137.7043515607636</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>137.7043515607636</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>137.7043515607636</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T4" t="n">
-        <v>517.7458231623355</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U4" t="n">
-        <v>517.7458231623355</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V4" t="n">
-        <v>517.7458231623355</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="W4" t="n">
-        <v>517.7458231623355</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="X4" t="n">
-        <v>517.7458231623355</v>
+        <v>137.7043515607636</v>
       </c>
       <c r="Y4" t="n">
-        <v>517.7458231623355</v>
+        <v>137.7043515607636</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1036.358670716696</v>
+        <v>1526.106027515566</v>
       </c>
       <c r="C5" t="n">
-        <v>1036.358670716696</v>
+        <v>1526.106027515566</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>1167.840328908816</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>782.0520763105712</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2566.052423981306</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2347.417756953369</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2093.65597159146</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>1762.593084247889</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>1409.824428977775</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X5" t="n">
-        <v>1036.358670716696</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="Y5" t="n">
-        <v>1036.358670716696</v>
+        <v>1526.106027515566</v>
       </c>
     </row>
     <row r="6">
@@ -4647,22 +4647,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4753,22 +4753,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>996.020754912797</v>
+        <v>1341.723186138024</v>
       </c>
       <c r="C8" t="n">
-        <v>627.0582379723853</v>
+        <v>1341.723186138024</v>
       </c>
       <c r="D8" t="n">
-        <v>268.7925393656348</v>
+        <v>983.457487531274</v>
       </c>
       <c r="E8" t="n">
-        <v>193.6288308926256</v>
+        <v>597.6692349330297</v>
       </c>
       <c r="F8" t="n">
-        <v>186.6833301434222</v>
+        <v>590.7237341838262</v>
       </c>
       <c r="G8" t="n">
         <v>173.6359524202537</v>
@@ -4808,19 +4808,19 @@
         <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>1094.46325341956</v>
+        <v>1198.863252100346</v>
       </c>
       <c r="M8" t="n">
-        <v>1281.162666244967</v>
+        <v>1385.562664925753</v>
       </c>
       <c r="N8" t="n">
-        <v>1475.49687913695</v>
+        <v>2012.8703329856</v>
       </c>
       <c r="O8" t="n">
-        <v>2022.658083904027</v>
+        <v>2183.039358302559</v>
       </c>
       <c r="P8" t="n">
-        <v>2451.973130243322</v>
+        <v>2612.354404641854</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2326.134191782762</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.457387763373</v>
+        <v>2326.134191782762</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.394500419803</v>
+        <v>2326.134191782762</v>
       </c>
       <c r="W8" t="n">
-        <v>1759.625845149689</v>
+        <v>1973.365536512648</v>
       </c>
       <c r="X8" t="n">
-        <v>1386.160086888609</v>
+        <v>1731.862518113836</v>
       </c>
       <c r="Y8" t="n">
-        <v>996.020754912797</v>
+        <v>1341.723186138024</v>
       </c>
     </row>
     <row r="9">
@@ -4887,13 +4887,13 @@
         <v>383.3713861261743</v>
       </c>
       <c r="L9" t="n">
-        <v>592.9687148475971</v>
+        <v>520.6009841418684</v>
       </c>
       <c r="M9" t="n">
-        <v>1233.514064314702</v>
+        <v>1154.550102024319</v>
       </c>
       <c r="N9" t="n">
-        <v>1432.170805967367</v>
+        <v>1822.094502051329</v>
       </c>
       <c r="O9" t="n">
         <v>1981.606814720089</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>689.5157427476169</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>520.57955981971</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>370.4629204073742</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>222.5498268249811</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>222.5498268249811</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>1053.877663279709</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="S10" t="n">
-        <v>1053.877663279709</v>
+        <v>823.6738367508469</v>
       </c>
       <c r="T10" t="n">
-        <v>1053.877663279709</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="U10" t="n">
-        <v>1053.877663279709</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V10" t="n">
-        <v>1053.877663279709</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>1053.877663279709</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>1053.877663279709</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>871.1642075778566</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,43 +5015,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
@@ -5072,19 +5072,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5124,22 +5124,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>869.6905094135296</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C13" t="n">
-        <v>700.7543264856228</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="D13" t="n">
-        <v>550.637687073287</v>
+        <v>545.3854261579756</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>397.4723325755825</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2044.222762528164</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1789.538274322277</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1500.121104285317</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,7 +5288,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068009</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>802.9288273958734</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C16" t="n">
-        <v>633.9926444679666</v>
+        <v>411.9631215597614</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408906</v>
+        <v>261.8464821474257</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>113.9333885650326</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304621</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.359422267661</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.369871369643</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.5772922261132</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,7 +5525,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
@@ -5589,25 +5589,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>409.1360811687895</v>
       </c>
       <c r="L18" t="n">
-        <v>427.7414352191925</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M18" t="n">
-        <v>1025.119922845744</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>1652.717886400351</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>2204.627616639638</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468518</v>
+        <v>762.5477693179072</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>593.6115863900003</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>443.4949469776645</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>295.5818533952714</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.108249235163</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U19" t="n">
-        <v>1882.204779583153</v>
+        <v>1755.431557602302</v>
       </c>
       <c r="V19" t="n">
-        <v>1627.520291377266</v>
+        <v>1500.747069396415</v>
       </c>
       <c r="W19" t="n">
-        <v>1338.103121340305</v>
+        <v>1211.329899359455</v>
       </c>
       <c r="X19" t="n">
-        <v>1110.113570442288</v>
+        <v>983.3403484614373</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987577</v>
+        <v>762.5477693179072</v>
       </c>
     </row>
     <row r="20">
@@ -5741,31 +5741,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>545.3854261579756</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,7 +5999,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273903</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="L24" t="n">
-        <v>95.58405025273903</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>741.8431516380886</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C25" t="n">
-        <v>572.9069687101817</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="D25" t="n">
-        <v>422.7903292978459</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="E25" t="n">
-        <v>422.7903292978459</v>
+        <v>451.6888124356586</v>
       </c>
       <c r="F25" t="n">
-        <v>422.7903292978459</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>255.5942300127259</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X25" t="n">
-        <v>1144.284195611858</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>923.4916164683283</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="26">
@@ -6215,28 +6215,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2297.690135143765</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,10 +6473,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>700.7543264856228</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D31" t="n">
-        <v>550.637687073287</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1823.430183384634</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1568.745695178747</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1279.328525141787</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1051.338974243769</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6689,25 +6689,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355936</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.793114229131</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468418</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E34" t="n">
         <v>402.7245934908938</v>
@@ -6901,7 +6901,7 @@
         <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="35">
@@ -6917,40 +6917,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7017,25 +7017,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7148,46 +7148,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O39" t="n">
-        <v>2148.04349261611</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D40" t="n">
-        <v>194.8007783998286</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E40" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="41">
@@ -7391,37 +7391,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273903</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>590.9096564684977</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M42" t="n">
-        <v>1188.28814409505</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N42" t="n">
-        <v>1815.886107649656</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>2367.795837888943</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7609,10 +7609,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>990.6907003535711</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="44">
@@ -7652,16 +7652,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7731,22 +7731,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D46" t="n">
-        <v>261.8464821474262</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
         <v>261.0127623330919</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
   </sheetData>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142015</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8456,22 +8456,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>312.2066704284449</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>50.31370338866014</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8535,16 +8535,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>73.09871788457451</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>459.0422035634803</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>473.6238973478236</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8939,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>-1.364242052659392e-12</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9182,7 +9182,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>-8.360776804491007e-13</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>66.36248435538609</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>285.9032928766021</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>146.3469868924072</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>125.5054897610411</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>85.96822242532858</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012339</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>86.46557462472369</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>96.94647126761409</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>61.40075786968299</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,13 +24421,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>44.73700564187163</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>100.7734165143922</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>67.31863952450735</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25081,7 +25081,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>57.22910392194177</v>
+        <v>203.6630665685109</v>
       </c>
     </row>
     <row r="35">
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>37.1260136526042</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25321,16 +25321,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>46.45968844823102</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>211.9838267404994</v>
       </c>
     </row>
     <row r="41">
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>73.65209508333268</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26029,7 +26029,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>145.6085800303783</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>211.9838267404998</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>852383.4813946051</v>
+        <v>852383.481394605</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>852383.4813946049</v>
+        <v>852383.4813946051</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>852383.4813946051</v>
+        <v>852383.4813946052</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>852383.481394605</v>
+        <v>852383.4813946051</v>
       </c>
     </row>
     <row r="11">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>852383.4813946051</v>
+        <v>852383.481394605</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.238904999</v>
+        <v>574729.2389049989</v>
       </c>
       <c r="C2" t="n">
         <v>574729.2389049986</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049989</v>
       </c>
       <c r="E2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="F2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="G2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="H2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="I2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="J2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="K2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830047</v>
       </c>
       <c r="L2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830047</v>
       </c>
       <c r="M2" t="n">
+        <v>565002.6197830047</v>
+      </c>
+      <c r="N2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="N2" t="n">
-        <v>565002.6197830043</v>
-      </c>
       <c r="O2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="P2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481116</v>
+        <v>184756.2785481117</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808064</v>
+        <v>771052.6913808065</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080583</v>
+        <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682752</v>
+        <v>5677.536566682721</v>
       </c>
       <c r="F4" t="n">
+        <v>5677.536566682723</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5677.536566682725</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5677.536566682726</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5677.536566682725</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5677.536566682723</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5677.536566682724</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5677.536566682749</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5677.536566682757</v>
+      </c>
+      <c r="O4" t="n">
         <v>5677.536566682751</v>
       </c>
-      <c r="G4" t="n">
-        <v>5677.536566682747</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5677.536566682745</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5677.536566682751</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5677.536566682767</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5677.536566682745</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="P4" t="n">
         <v>5677.536566682744</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5677.536566682744</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5677.536566682753</v>
-      </c>
-      <c r="O4" t="n">
-        <v>5677.536566682767</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5677.536566682745</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-308020.1338359882</v>
+        <v>-308020.1338359883</v>
       </c>
       <c r="C6" t="n">
         <v>281947.7453785558</v>
       </c>
       <c r="D6" t="n">
-        <v>126143.9392847607</v>
+        <v>126143.939284761</v>
       </c>
       <c r="E6" t="n">
-        <v>-312850.1379883919</v>
+        <v>-312884.8759138274</v>
       </c>
       <c r="F6" t="n">
-        <v>458202.5533924145</v>
+        <v>458167.8154669787</v>
       </c>
       <c r="G6" t="n">
-        <v>458202.5533924144</v>
+        <v>458167.8154669789</v>
       </c>
       <c r="H6" t="n">
-        <v>458202.5533924144</v>
+        <v>458167.8154669791</v>
       </c>
       <c r="I6" t="n">
-        <v>458202.5533924144</v>
+        <v>458167.8154669789</v>
       </c>
       <c r="J6" t="n">
-        <v>281779.3341998216</v>
+        <v>281744.596274386</v>
       </c>
       <c r="K6" t="n">
-        <v>458202.5533924144</v>
+        <v>458167.8154669792</v>
       </c>
       <c r="L6" t="n">
-        <v>458202.5533924146</v>
+        <v>458167.8154669792</v>
       </c>
       <c r="M6" t="n">
-        <v>333994.0426843563</v>
+        <v>333959.3047589207</v>
       </c>
       <c r="N6" t="n">
-        <v>458202.5533924144</v>
+        <v>458167.8154669789</v>
       </c>
       <c r="O6" t="n">
-        <v>458202.5533924144</v>
+        <v>458167.8154669791</v>
       </c>
       <c r="P6" t="n">
-        <v>458202.5533924145</v>
+        <v>458167.8154669789</v>
       </c>
     </row>
   </sheetData>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209784</v>
+        <v>215.7324361209785</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036087</v>
+        <v>774.4994000036089</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>23.03118778159273</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>50.61924544429677</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27543,16 +27543,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>73.2471327988</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27582,13 +27582,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>16.75577602442652</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27619,22 +27619,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>23.75498498155895</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>99.10841501723584</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,28 +27774,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>107.5829646831825</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27825,13 +27825,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>28.31325977179802</v>
       </c>
     </row>
     <row r="8">
@@ -27853,19 +27853,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>307.5182986839827</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>130.6431124636457</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
         <v>152.7120966692326</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>106.6372753043364</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>37.69833220726073</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28485,7 +28485,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>-9.426533627750662e-13</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28767,10 +28767,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
         <v>-3.220922302743453e-13</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -29332,7 +29332,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31844,34 +31844,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338207</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>512.9101366533177</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>303.4024373464759</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>485.927610870024</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,31 +32540,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>560.1612034965806</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32573,16 +32573,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>183.7183104822597</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>171.5999003578894</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33494,13 +33494,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
@@ -33509,19 +33509,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>691.6611968462889</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>344.2757660550394</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>162.5000833330452</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>543.0832917018711</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>217.8799919951683</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34226,13 +34226,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>321.1112257697157</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34451,25 +34451,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34775,16 +34775,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
         <v>297.2230414343419</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35176,22 +35176,22 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>452.9426864297107</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P8" t="n">
         <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312129</v>
+        <v>85.65119835996833</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35255,16 +35255,16 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>211.7144734559826</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>640.3526443257074</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P9" t="n">
         <v>428.2502711927643</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394657</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>370.3138922088733</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,28 +35957,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>165.560998372117</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>351.9532034556937</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,22 +36197,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>418.0271695745623</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36221,7 +36221,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>45.87687150790075</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>29.46586643587111</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37078,7 +37078,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O32" t="n">
         <v>696.4886512243162</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37157,19 +37157,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>560.3194847629557</v>
       </c>
       <c r="O33" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>212.9340539717061</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,31 +37616,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>23.94570355317107</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>409.1088842875408</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>79.32561221529411</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37874,13 +37874,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>187.1368183553855</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
